--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1130759.767849227</v>
+        <v>1126313.345000628</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29913606.0798671</v>
+        <v>29913606.07986707</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.855938642</v>
+        <v>7134934.855938641</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4563738.92653772</v>
+        <v>4563738.926537719</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>125.0197177216231</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309218</v>
+        <v>26.42234931587576</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T12" t="n">
         <v>136.0833327936195</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.80493651322657</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>80.0813322044408</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>11.21129730908802</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>179.6225480737515</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T15" t="n">
         <v>136.0833327936195</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>186.4750024587667</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H16" t="n">
         <v>134.26258275451</v>
@@ -1818,7 +1818,7 @@
         <v>152.5650864830671</v>
       </c>
       <c r="T16" t="n">
-        <v>225.7945470543274</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U16" t="n">
         <v>277.3329370021073</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>220.7831703984029</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H17" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>47.21631368943331</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T18" t="n">
         <v>136.0833327936195</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,7 +2013,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>103.7995174407112</v>
+        <v>68.1002948988331</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S19" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.0153716433569</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>192.3376666085651</v>
       </c>
       <c r="V20" t="n">
-        <v>29.6916939345029</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T21" t="n">
         <v>136.0833327936195</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.6618031181871</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>5.281724275871597</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S22" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.0153716433569</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357.1876493049929</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>26.42234931587531</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T24" t="n">
         <v>136.0833327936195</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>80.08133220444122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S25" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.0153716433569</v>
@@ -2535,7 +2535,7 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>177.7137768111749</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>40.78833261983183</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>219.1628131883908</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T27" t="n">
         <v>136.0833327936195</v>
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>60.54929322718321</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>152.5650864830671</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>164.2426983497959</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.2657302332918</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6089649852995</v>
+        <v>172.8593743547376</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>186.4624775988397</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T30" t="n">
         <v>136.0833327936195</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S31" t="n">
-        <v>152.5650864830671</v>
+        <v>62.50326220432267</v>
       </c>
       <c r="T31" t="n">
         <v>237.0153716433569</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>176.6571371903574</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.96870069361437</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8302460968812</v>
+        <v>61.10168952475303</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T33" t="n">
         <v>136.0833327936195</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>80.08133220444167</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S34" t="n">
-        <v>152.5650864830671</v>
+        <v>62.50326220432267</v>
       </c>
       <c r="T34" t="n">
         <v>237.0153716433569</v>
@@ -3268,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>68.20460941214689</v>
+        <v>33.36850198857897</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T36" t="n">
         <v>136.0833327936195</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.7977046903955</v>
+        <v>85.70738533786633</v>
       </c>
       <c r="H37" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.5650864830671</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>195.7474805668</v>
+        <v>404.6162378121732</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.1005558094662</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T39" t="n">
         <v>136.0833327936195</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.17798024093895</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>121.9853122955307</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.1005558094662</v>
+        <v>192.5305547841974</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>33.14614174995689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>85.81706634455473</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>56.23902409464637</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.5650864830671</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>172.859374354738</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>374.89796173525</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>151.2500848705169</v>
+        <v>85.73357912732521</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1722.302631782113</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C11" t="n">
-        <v>1295.401901795413</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D11" t="n">
-        <v>872.1092809804136</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E11" t="n">
-        <v>745.826737827259</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F11" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G11" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I11" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M11" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N11" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O11" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P11" t="n">
         <v>1918.85421215123</v>
@@ -5068,25 +5068,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2134.022630614366</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.022630614366</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="U11" t="n">
-        <v>2134.022630614366</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="V11" t="n">
-        <v>2134.022630614366</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="W11" t="n">
-        <v>2134.022630614366</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="X11" t="n">
-        <v>1722.302631782113</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="Y11" t="n">
-        <v>1722.302631782113</v>
+        <v>2164.976144480241</v>
       </c>
     </row>
     <row r="12">
@@ -5102,31 +5102,31 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D12" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E12" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F12" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G12" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H12" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I12" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J12" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K12" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L12" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M12" t="n">
         <v>877.2524036743006</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>423.4227442960193</v>
+        <v>296.6961053952932</v>
       </c>
       <c r="C13" t="n">
-        <v>423.4227442960193</v>
+        <v>124.7235422742092</v>
       </c>
       <c r="D13" t="n">
-        <v>423.4227442960193</v>
+        <v>124.7235422742092</v>
       </c>
       <c r="E13" t="n">
-        <v>423.4227442960193</v>
+        <v>124.7235422742092</v>
       </c>
       <c r="F13" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G13" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J13" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K13" t="n">
-        <v>249.0354163844682</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L13" t="n">
-        <v>361.3578075347968</v>
+        <v>659.8249844777408</v>
       </c>
       <c r="M13" t="n">
-        <v>742.6440485409489</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N13" t="n">
-        <v>1258.082955204228</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O13" t="n">
-        <v>1740.927831326518</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P13" t="n">
         <v>2140.554082608811</v>
@@ -5223,13 +5223,13 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R13" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S13" t="n">
-        <v>2031.8763562978</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.466889991379</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="U13" t="n">
         <v>1512.33261019127</v>
@@ -5238,13 +5238,13 @@
         <v>1230.621142799299</v>
       </c>
       <c r="W13" t="n">
-        <v>955.7687389718121</v>
+        <v>955.7687389718117</v>
       </c>
       <c r="X13" t="n">
-        <v>713.2048424176172</v>
+        <v>713.2048424176168</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.8620741073593</v>
+        <v>486.8620741073588</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>758.9278287398116</v>
+        <v>1595.096298494401</v>
       </c>
       <c r="C14" t="n">
-        <v>332.0270987531117</v>
+        <v>1595.096298494401</v>
       </c>
       <c r="D14" t="n">
-        <v>332.0270987531117</v>
+        <v>1171.803677679402</v>
       </c>
       <c r="E14" t="n">
-        <v>320.7025560166592</v>
+        <v>745.826737827259</v>
       </c>
       <c r="F14" t="n">
         <v>320.7025560166592</v>
@@ -5272,19 +5272,19 @@
         <v>320.7025560166592</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I14" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J14" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804922</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M14" t="n">
         <v>1043.801082832444</v>
@@ -5293,37 +5293,37 @@
         <v>1365.479726947677</v>
       </c>
       <c r="O14" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P14" t="n">
         <v>1918.85421215123</v>
       </c>
       <c r="Q14" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R14" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T14" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U14" t="n">
-        <v>1933.474512490925</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V14" t="n">
-        <v>1575.985097617174</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="W14" t="n">
-        <v>1575.985097617174</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="X14" t="n">
-        <v>1164.265098784921</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="Y14" t="n">
-        <v>758.9278287398116</v>
+        <v>1595.096298494401</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D15" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E15" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F15" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G15" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I15" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J15" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K15" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L15" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M15" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N15" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O15" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P15" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R15" t="n">
         <v>1815.956238873899</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.7417390388102</v>
+        <v>580.2149531571414</v>
       </c>
       <c r="C16" t="n">
-        <v>417.7691759177262</v>
+        <v>580.2149531571414</v>
       </c>
       <c r="D16" t="n">
-        <v>417.7691759177262</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="E16" t="n">
-        <v>251.5609700705797</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="F16" t="n">
-        <v>251.5609700705797</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G16" t="n">
         <v>251.5609700705797</v>
@@ -5433,55 +5433,55 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J16" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K16" t="n">
-        <v>171.1136997362474</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L16" t="n">
-        <v>659.8249844777409</v>
+        <v>659.8249844777408</v>
       </c>
       <c r="M16" t="n">
-        <v>778.7826681742292</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N16" t="n">
-        <v>1258.082955204228</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O16" t="n">
-        <v>1740.927831326519</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P16" t="n">
-        <v>2140.554082608812</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q16" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R16" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S16" t="n">
-        <v>2031.8763562978</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T16" t="n">
-        <v>1803.801056242924</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.666776442816</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.666776442816</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.814372615329</v>
+        <v>1237.480206363783</v>
       </c>
       <c r="X16" t="n">
-        <v>1006.250476061134</v>
+        <v>994.9163098095879</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.9077077508759</v>
+        <v>768.57354149933</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1795.274036513796</v>
+        <v>1724.123775770975</v>
       </c>
       <c r="C17" t="n">
-        <v>1572.260733081066</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.968112266066</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="E17" t="n">
-        <v>722.9911724139236</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F17" t="n">
-        <v>722.9911724139236</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G17" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I17" t="n">
-        <v>87.10761271643844</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J17" t="n">
-        <v>228.5477172037496</v>
+        <v>228.547717203749</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804919</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050655</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N17" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P17" t="n">
         <v>1918.85421215123</v>
@@ -5554,13 +5554,13 @@
         <v>2191.665386213449</v>
       </c>
       <c r="W17" t="n">
-        <v>1795.274036513796</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="X17" t="n">
-        <v>1795.274036513796</v>
+        <v>2143.972140062506</v>
       </c>
       <c r="Y17" t="n">
-        <v>1795.274036513796</v>
+        <v>2143.972140062506</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D18" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E18" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F18" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I18" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J18" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K18" t="n">
-        <v>297.4808782569462</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L18" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M18" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P18" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>486.8620741073593</v>
+        <v>450.8022533579874</v>
       </c>
       <c r="C19" t="n">
-        <v>314.8895109862752</v>
+        <v>278.8296902369034</v>
       </c>
       <c r="D19" t="n">
-        <v>314.8895109862752</v>
+        <v>278.8296902369034</v>
       </c>
       <c r="E19" t="n">
-        <v>148.6813051391288</v>
+        <v>112.6214843897569</v>
       </c>
       <c r="F19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J19" t="n">
-        <v>87.13587819270246</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K19" t="n">
-        <v>359.9904763162328</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L19" t="n">
-        <v>472.3128674665614</v>
+        <v>659.8249844777408</v>
       </c>
       <c r="M19" t="n">
-        <v>591.2705511630497</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N19" t="n">
-        <v>1106.709457826329</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O19" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P19" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S19" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="T19" t="n">
-        <v>1792.466889991379</v>
+        <v>1946.573037954072</v>
       </c>
       <c r="U19" t="n">
-        <v>1512.33261019127</v>
+        <v>1666.438758153964</v>
       </c>
       <c r="V19" t="n">
-        <v>1230.621142799299</v>
+        <v>1384.727290761993</v>
       </c>
       <c r="W19" t="n">
-        <v>955.7687389718121</v>
+        <v>1109.874886934506</v>
       </c>
       <c r="X19" t="n">
-        <v>713.2048424176172</v>
+        <v>867.310990380311</v>
       </c>
       <c r="Y19" t="n">
-        <v>486.8620741073593</v>
+        <v>640.968222070053</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>470.7340377109689</v>
+        <v>1997.384914891666</v>
       </c>
       <c r="C20" t="n">
-        <v>43.83330772426898</v>
+        <v>1997.384914891666</v>
       </c>
       <c r="D20" t="n">
-        <v>43.83330772426898</v>
+        <v>1574.092294076666</v>
       </c>
       <c r="E20" t="n">
-        <v>43.83330772426898</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F20" t="n">
-        <v>43.83330772426898</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G20" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I20" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L20" t="n">
         <v>727.9824581050659</v>
@@ -5764,10 +5764,10 @@
         <v>1043.801082832444</v>
       </c>
       <c r="N20" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O20" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P20" t="n">
         <v>1918.85421215123</v>
@@ -5779,25 +5779,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T20" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U20" t="n">
-        <v>2134.022630614366</v>
+        <v>1997.384914891666</v>
       </c>
       <c r="V20" t="n">
-        <v>2104.031020579514</v>
+        <v>1997.384914891666</v>
       </c>
       <c r="W20" t="n">
-        <v>1707.639670879861</v>
+        <v>1997.384914891666</v>
       </c>
       <c r="X20" t="n">
-        <v>1295.919672047609</v>
+        <v>1997.384914891666</v>
       </c>
       <c r="Y20" t="n">
-        <v>890.582402002499</v>
+        <v>1997.384914891666</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D21" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E21" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F21" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G21" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H21" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I21" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J21" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K21" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L21" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M21" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N21" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O21" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P21" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R21" t="n">
         <v>1815.956238873899</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>381.1430810586854</v>
+        <v>450.8022533579874</v>
       </c>
       <c r="C22" t="n">
-        <v>209.1705179376014</v>
+        <v>445.4671783318544</v>
       </c>
       <c r="D22" t="n">
-        <v>209.1705179376014</v>
+        <v>282.1504054586251</v>
       </c>
       <c r="E22" t="n">
-        <v>209.1705179376014</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="F22" t="n">
-        <v>209.1705179376014</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="G22" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="H22" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J22" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K22" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L22" t="n">
-        <v>659.8249844777409</v>
+        <v>749.2359158802501</v>
       </c>
       <c r="M22" t="n">
-        <v>1192.318148637051</v>
+        <v>1281.72908003956</v>
       </c>
       <c r="N22" t="n">
-        <v>1484.411782129532</v>
+        <v>1797.167986702839</v>
       </c>
       <c r="O22" t="n">
-        <v>1589.554333948619</v>
+        <v>1902.310538521926</v>
       </c>
       <c r="P22" t="n">
         <v>1989.180585230912</v>
@@ -5934,28 +5934,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S22" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="T22" t="n">
-        <v>1792.466889991379</v>
+        <v>1946.573037954072</v>
       </c>
       <c r="U22" t="n">
-        <v>1512.33261019127</v>
+        <v>1666.438758153964</v>
       </c>
       <c r="V22" t="n">
-        <v>1230.621142799299</v>
+        <v>1384.727290761993</v>
       </c>
       <c r="W22" t="n">
-        <v>955.7687389718121</v>
+        <v>1109.874886934506</v>
       </c>
       <c r="X22" t="n">
-        <v>713.2048424176172</v>
+        <v>867.310990380311</v>
       </c>
       <c r="Y22" t="n">
-        <v>486.8620741073593</v>
+        <v>640.968222070053</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>745.826737827259</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C23" t="n">
-        <v>745.826737827259</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D23" t="n">
-        <v>745.826737827259</v>
+        <v>894.9344293870112</v>
       </c>
       <c r="E23" t="n">
-        <v>745.826737827259</v>
+        <v>468.9574895348687</v>
       </c>
       <c r="F23" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="G23" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J23" t="n">
         <v>228.5477172037495</v>
@@ -5998,43 +5998,43 @@
         <v>727.9824581050659</v>
       </c>
       <c r="M23" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N23" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O23" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151229</v>
       </c>
       <c r="Q23" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681864</v>
       </c>
       <c r="R23" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="S23" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="T23" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="U23" t="n">
-        <v>1875.831756891841</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="V23" t="n">
-        <v>1518.34234201809</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="W23" t="n">
-        <v>1518.34234201809</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="X23" t="n">
-        <v>1106.622343185838</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="Y23" t="n">
-        <v>1106.622343185838</v>
+        <v>2164.976144480241</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D24" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E24" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F24" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G24" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702637</v>
       </c>
       <c r="H24" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I24" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J24" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K24" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M24" t="n">
-        <v>758.2365412873039</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N24" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O24" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P24" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R24" t="n">
         <v>1815.956238873899</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>296.6961053952936</v>
+        <v>553.0048552841249</v>
       </c>
       <c r="C25" t="n">
-        <v>124.7235422742096</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="D25" t="n">
-        <v>43.83330772426898</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="E25" t="n">
-        <v>43.83330772426898</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="F25" t="n">
-        <v>43.83330772426898</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G25" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="H25" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426896</v>
       </c>
       <c r="J25" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270242</v>
       </c>
       <c r="K25" t="n">
-        <v>418.3963088502694</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L25" t="n">
-        <v>530.718700000598</v>
+        <v>522.9070889549455</v>
       </c>
       <c r="M25" t="n">
-        <v>649.6763836970863</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N25" t="n">
-        <v>1165.115290360365</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O25" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.55408260881</v>
       </c>
       <c r="Q25" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.665386213448</v>
       </c>
       <c r="R25" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S25" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="T25" t="n">
-        <v>1792.466889991379</v>
+        <v>1946.573037954072</v>
       </c>
       <c r="U25" t="n">
-        <v>1512.33261019127</v>
+        <v>1666.438758153964</v>
       </c>
       <c r="V25" t="n">
-        <v>1230.621142799299</v>
+        <v>1486.92989268813</v>
       </c>
       <c r="W25" t="n">
-        <v>955.7687389718121</v>
+        <v>1212.077488860643</v>
       </c>
       <c r="X25" t="n">
-        <v>713.2048424176172</v>
+        <v>969.5135923064486</v>
       </c>
       <c r="Y25" t="n">
-        <v>486.8620741073593</v>
+        <v>743.1708239961906</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>895.8582195215687</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C26" t="n">
-        <v>468.9574895348688</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D26" t="n">
-        <v>468.9574895348688</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E26" t="n">
         <v>468.9574895348688</v>
       </c>
       <c r="F26" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G26" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H26" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I26" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J26" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804921</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M26" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N26" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O26" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P26" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q26" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R26" t="n">
         <v>2191.665386213449</v>
@@ -6256,22 +6256,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T26" t="n">
-        <v>2191.665386213449</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="U26" t="n">
-        <v>1933.474512490925</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="V26" t="n">
-        <v>1933.474512490925</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="W26" t="n">
-        <v>1537.083162791271</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="X26" t="n">
-        <v>1315.706583813099</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="Y26" t="n">
-        <v>1315.706583813099</v>
+        <v>1745.127780188711</v>
       </c>
     </row>
     <row r="27">
@@ -6287,40 +6287,40 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D27" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E27" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F27" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G27" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H27" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J27" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K27" t="n">
-        <v>297.4808782569461</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6576814496919</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M27" t="n">
-        <v>758.2365412873039</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N27" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O27" t="n">
-        <v>1249.652366935844</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P27" t="n">
         <v>1657.896824151927</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.3582864446447</v>
+        <v>816.2398515018226</v>
       </c>
       <c r="C28" t="n">
-        <v>373.3582864446447</v>
+        <v>644.2672883807386</v>
       </c>
       <c r="D28" t="n">
-        <v>210.0415135714154</v>
+        <v>583.1063861310586</v>
       </c>
       <c r="E28" t="n">
-        <v>43.83330772426899</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="F28" t="n">
-        <v>43.83330772426899</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G28" t="n">
-        <v>43.83330772426899</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I28" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J28" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K28" t="n">
-        <v>475.5308175345141</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L28" t="n">
-        <v>587.8532086848427</v>
+        <v>522.9070889549459</v>
       </c>
       <c r="M28" t="n">
-        <v>1120.346372844153</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.785279507432</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O28" t="n">
-        <v>1740.927831326519</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P28" t="n">
-        <v>2140.554082608812</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q28" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R28" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S28" t="n">
-        <v>2031.8763562978</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T28" t="n">
-        <v>1792.466889991379</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="U28" t="n">
-        <v>1512.332610191271</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="V28" t="n">
-        <v>1230.6211427993</v>
+        <v>1750.164888905828</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7687389718126</v>
+        <v>1475.312485078341</v>
       </c>
       <c r="X28" t="n">
-        <v>789.8670234669682</v>
+        <v>1232.748588524146</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5242551567103</v>
+        <v>1006.405820213888</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>871.2461059321332</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="C29" t="n">
-        <v>871.2461059321332</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="D29" t="n">
-        <v>871.2461059321332</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="E29" t="n">
-        <v>871.2461059321332</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="F29" t="n">
         <v>446.1219241215334</v>
       </c>
       <c r="G29" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H29" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K29" t="n">
         <v>448.7747784804924</v>
@@ -6475,40 +6475,40 @@
         <v>1043.801082832444</v>
       </c>
       <c r="N29" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O29" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P29" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q29" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R29" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T29" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U29" t="n">
-        <v>1875.831756891841</v>
+        <v>2017.059957572299</v>
       </c>
       <c r="V29" t="n">
-        <v>1875.831756891841</v>
+        <v>1659.570542698549</v>
       </c>
       <c r="W29" t="n">
-        <v>1479.440407192188</v>
+        <v>1263.179192998896</v>
       </c>
       <c r="X29" t="n">
-        <v>1291.094470223663</v>
+        <v>851.4591941666431</v>
       </c>
       <c r="Y29" t="n">
-        <v>1291.094470223663</v>
+        <v>446.1219241215334</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D30" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E30" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F30" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G30" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H30" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K30" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L30" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M30" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N30" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O30" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P30" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R30" t="n">
         <v>1815.956238873899</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.9844179440219</v>
+        <v>387.6676450707926</v>
       </c>
       <c r="C31" t="n">
-        <v>379.0118548229378</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="D31" t="n">
-        <v>215.6950819497086</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="E31" t="n">
-        <v>215.6950819497086</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="F31" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G31" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H31" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I31" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J31" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K31" t="n">
-        <v>361.3039070282717</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L31" t="n">
-        <v>850.0151917697652</v>
+        <v>522.9070889549459</v>
       </c>
       <c r="M31" t="n">
-        <v>968.9728754662535</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N31" t="n">
-        <v>1484.411782129533</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O31" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P31" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R31" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S31" t="n">
-        <v>2031.8763562978</v>
+        <v>2122.847895973299</v>
       </c>
       <c r="T31" t="n">
-        <v>1792.466889991379</v>
+        <v>1883.438429666877</v>
       </c>
       <c r="U31" t="n">
-        <v>1512.332610191271</v>
+        <v>1603.304149866769</v>
       </c>
       <c r="V31" t="n">
-        <v>1230.6211427993</v>
+        <v>1321.592682474798</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7687389718126</v>
+        <v>1046.740278647311</v>
       </c>
       <c r="X31" t="n">
-        <v>777.3271862542798</v>
+        <v>804.1763820931162</v>
       </c>
       <c r="Y31" t="n">
-        <v>550.9844179440219</v>
+        <v>577.8336137828583</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>446.1219241215334</v>
+        <v>1321.835159373711</v>
       </c>
       <c r="C32" t="n">
-        <v>446.1219241215334</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="D32" t="n">
-        <v>446.1219241215334</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E32" t="n">
-        <v>446.1219241215334</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F32" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G32" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H32" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I32" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J32" t="n">
         <v>228.5477172037495</v>
@@ -6712,40 +6712,40 @@
         <v>1043.801082832444</v>
       </c>
       <c r="N32" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O32" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P32" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q32" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R32" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S32" t="n">
-        <v>2144.222254199698</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T32" t="n">
-        <v>1932.272510667494</v>
+        <v>2129.946507905617</v>
       </c>
       <c r="U32" t="n">
-        <v>1674.081636944969</v>
+        <v>2129.946507905617</v>
       </c>
       <c r="V32" t="n">
-        <v>1674.081636944969</v>
+        <v>2129.946507905617</v>
       </c>
       <c r="W32" t="n">
-        <v>1277.690287245316</v>
+        <v>1733.555158205964</v>
       </c>
       <c r="X32" t="n">
-        <v>865.9702884130635</v>
+        <v>1321.835159373711</v>
       </c>
       <c r="Y32" t="n">
-        <v>865.9702884130635</v>
+        <v>1321.835159373711</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D33" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E33" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F33" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G33" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H33" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J33" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K33" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M33" t="n">
-        <v>758.2365412873039</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N33" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O33" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P33" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q33" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R33" t="n">
         <v>1815.956238873899</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>296.6961053952941</v>
+        <v>387.6676450707926</v>
       </c>
       <c r="C34" t="n">
-        <v>124.7235422742101</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="D34" t="n">
-        <v>43.83330772426899</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="E34" t="n">
-        <v>43.83330772426899</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="F34" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G34" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H34" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I34" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J34" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K34" t="n">
-        <v>359.9904763162334</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L34" t="n">
-        <v>472.3128674665619</v>
+        <v>522.9070889549459</v>
       </c>
       <c r="M34" t="n">
-        <v>591.2705511630502</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.709457826329</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O34" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P34" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q34" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R34" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S34" t="n">
-        <v>2031.8763562978</v>
+        <v>2122.847895973299</v>
       </c>
       <c r="T34" t="n">
-        <v>1792.466889991379</v>
+        <v>1883.438429666877</v>
       </c>
       <c r="U34" t="n">
-        <v>1512.332610191271</v>
+        <v>1603.304149866769</v>
       </c>
       <c r="V34" t="n">
-        <v>1230.6211427993</v>
+        <v>1321.592682474798</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7687389718126</v>
+        <v>1046.740278647311</v>
       </c>
       <c r="X34" t="n">
-        <v>713.2048424176177</v>
+        <v>804.1763820931162</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.8620741073597</v>
+        <v>577.8336137828583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>470.7340377109689</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="C35" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="D35" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="E35" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="F35" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G35" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H35" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I35" t="n">
-        <v>87.10761271643833</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J35" t="n">
-        <v>228.5477172037492</v>
+        <v>228.547717203749</v>
       </c>
       <c r="K35" t="n">
-        <v>448.7747784804921</v>
+        <v>448.7747784804919</v>
       </c>
       <c r="L35" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050655</v>
       </c>
       <c r="M35" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N35" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O35" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P35" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q35" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R35" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T35" t="n">
-        <v>2065.129085753612</v>
+        <v>2157.959828649227</v>
       </c>
       <c r="U35" t="n">
-        <v>2065.129085753612</v>
+        <v>1899.768954926702</v>
       </c>
       <c r="V35" t="n">
-        <v>1707.639670879861</v>
+        <v>1542.279540052952</v>
       </c>
       <c r="W35" t="n">
-        <v>1707.639670879861</v>
+        <v>1145.888190353299</v>
       </c>
       <c r="X35" t="n">
-        <v>1295.919672047609</v>
+        <v>1145.888190353299</v>
       </c>
       <c r="Y35" t="n">
-        <v>890.582402002499</v>
+        <v>740.5509203081892</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D36" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E36" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F36" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G36" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H36" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I36" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J36" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K36" t="n">
-        <v>297.4808782569461</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L36" t="n">
-        <v>508.6576814496919</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M36" t="n">
-        <v>758.2365412873039</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N36" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O36" t="n">
-        <v>1249.652366935844</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P36" t="n">
-        <v>1433.425461480025</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q36" t="n">
         <v>1772.632401645602</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>713.2048424176177</v>
+        <v>302.3789873482482</v>
       </c>
       <c r="C37" t="n">
-        <v>713.2048424176177</v>
+        <v>130.4064242271643</v>
       </c>
       <c r="D37" t="n">
-        <v>549.8880695443884</v>
+        <v>130.4064242271643</v>
       </c>
       <c r="E37" t="n">
-        <v>383.6798636972419</v>
+        <v>130.4064242271643</v>
       </c>
       <c r="F37" t="n">
-        <v>383.6798636972419</v>
+        <v>130.4064242271643</v>
       </c>
       <c r="G37" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H37" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I37" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J37" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K37" t="n">
-        <v>249.0354163844682</v>
+        <v>418.3963088502693</v>
       </c>
       <c r="L37" t="n">
-        <v>623.6863648444611</v>
+        <v>530.7187000005979</v>
       </c>
       <c r="M37" t="n">
-        <v>742.6440485409494</v>
+        <v>649.6763836970862</v>
       </c>
       <c r="N37" t="n">
-        <v>1258.082955204228</v>
+        <v>1165.115290360365</v>
       </c>
       <c r="O37" t="n">
-        <v>1740.927831326519</v>
+        <v>1647.960166482655</v>
       </c>
       <c r="P37" t="n">
-        <v>2140.554082608812</v>
+        <v>2047.586417764948</v>
       </c>
       <c r="Q37" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R37" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S37" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="U37" t="n">
-        <v>1512.332610191271</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V37" t="n">
-        <v>1230.6211427993</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W37" t="n">
-        <v>955.7687389718126</v>
+        <v>961.4516209247668</v>
       </c>
       <c r="X37" t="n">
-        <v>713.2048424176177</v>
+        <v>718.8877243705718</v>
       </c>
       <c r="Y37" t="n">
-        <v>713.2048424176177</v>
+        <v>492.5449560603139</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1771.817021921918</v>
+        <v>1154.530008344606</v>
       </c>
       <c r="C38" t="n">
-        <v>1574.092294076666</v>
+        <v>745.826737827259</v>
       </c>
       <c r="D38" t="n">
-        <v>1574.092294076666</v>
+        <v>745.826737827259</v>
       </c>
       <c r="E38" t="n">
-        <v>1148.115354224523</v>
+        <v>745.826737827259</v>
       </c>
       <c r="F38" t="n">
-        <v>722.9911724139236</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G38" t="n">
         <v>320.7025560166592</v>
@@ -7171,10 +7171,10 @@
         <v>43.83330772426897</v>
       </c>
       <c r="I38" t="n">
-        <v>87.10761271643835</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J38" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K38" t="n">
         <v>448.7747784804924</v>
@@ -7183,7 +7183,7 @@
         <v>727.9824581050659</v>
       </c>
       <c r="M38" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N38" t="n">
         <v>1365.479726947677</v>
@@ -7204,22 +7204,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T38" t="n">
-        <v>2191.665386213449</v>
+        <v>1979.715642681245</v>
       </c>
       <c r="U38" t="n">
-        <v>2191.665386213449</v>
+        <v>1979.715642681245</v>
       </c>
       <c r="V38" t="n">
-        <v>2191.665386213449</v>
+        <v>1979.715642681245</v>
       </c>
       <c r="W38" t="n">
-        <v>2191.665386213449</v>
+        <v>1979.715642681245</v>
       </c>
       <c r="X38" t="n">
-        <v>2191.665386213449</v>
+        <v>1979.715642681245</v>
       </c>
       <c r="Y38" t="n">
-        <v>2191.665386213449</v>
+        <v>1574.378372636136</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>974.97332606408</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C39" t="n">
-        <v>857.4674225815847</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D39" t="n">
-        <v>753.6274640968697</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E39" t="n">
-        <v>648.925530369807</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F39" t="n">
-        <v>555.2797000527112</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G39" t="n">
-        <v>462.3230136065753</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H39" t="n">
-        <v>419.5424550638178</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I39" t="n">
-        <v>440.5525759700804</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J39" t="n">
-        <v>521.7354331104924</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K39" t="n">
-        <v>673.190025596495</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L39" t="n">
-        <v>884.3668287892408</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.945688626853</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.4715630381</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O39" t="n">
-        <v>1849.832876947296</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P39" t="n">
-        <v>2033.605971491476</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q39" t="n">
-        <v>2148.341548985151</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R39" t="n">
-        <v>2191.665386213449</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S39" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T39" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U39" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V39" t="n">
-        <v>1603.59194753097</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W39" t="n">
-        <v>1407.070570364187</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X39" t="n">
-        <v>1243.59322413085</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y39" t="n">
-        <v>1103.900335484143</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.257496350811</v>
+        <v>852.8113942502694</v>
       </c>
       <c r="C40" t="n">
-        <v>918.2849332297275</v>
+        <v>680.8388311291853</v>
       </c>
       <c r="D40" t="n">
-        <v>754.9681603564982</v>
+        <v>517.522058255956</v>
       </c>
       <c r="E40" t="n">
-        <v>588.7599545093517</v>
+        <v>351.3138524088096</v>
       </c>
       <c r="F40" t="n">
-        <v>416.8981802839121</v>
+        <v>179.45207818337</v>
       </c>
       <c r="G40" t="n">
-        <v>251.5609700705797</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H40" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I40" t="n">
         <v>43.83330772426897</v>
       </c>
       <c r="J40" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K40" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L40" t="n">
-        <v>985.0293102399838</v>
+        <v>522.9070889549459</v>
       </c>
       <c r="M40" t="n">
-        <v>1517.522474399294</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N40" t="n">
-        <v>1634.928458220693</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O40" t="n">
-        <v>1740.07101003978</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P40" t="n">
-        <v>2139.697261322073</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q40" t="n">
         <v>2191.665386213449</v>
@@ -7365,19 +7365,19 @@
         <v>2191.665386213449</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.665386213449</v>
+        <v>2068.447899046246</v>
       </c>
       <c r="V40" t="n">
-        <v>1909.953918821477</v>
+        <v>1786.736431654275</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.10151499399</v>
+        <v>1511.884027826788</v>
       </c>
       <c r="X40" t="n">
-        <v>1392.537618439796</v>
+        <v>1269.320131272593</v>
       </c>
       <c r="Y40" t="n">
-        <v>1166.194850129538</v>
+        <v>1042.977362962335</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.9911724139236</v>
+        <v>1513.626148199394</v>
       </c>
       <c r="C41" t="n">
-        <v>722.9911724139236</v>
+        <v>1086.725418212694</v>
       </c>
       <c r="D41" t="n">
-        <v>722.9911724139236</v>
+        <v>663.4327973976945</v>
       </c>
       <c r="E41" t="n">
-        <v>722.9911724139236</v>
+        <v>663.4327973976945</v>
       </c>
       <c r="F41" t="n">
-        <v>722.9911724139236</v>
+        <v>238.3086155870947</v>
       </c>
       <c r="G41" t="n">
-        <v>320.7025560166592</v>
+        <v>238.3086155870947</v>
       </c>
       <c r="H41" t="n">
         <v>43.83330772426898</v>
@@ -7438,25 +7438,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S41" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T41" t="n">
-        <v>1922.072887082163</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U41" t="n">
-        <v>1922.072887082163</v>
+        <v>1933.474512490924</v>
       </c>
       <c r="V41" t="n">
-        <v>1564.583472208412</v>
+        <v>1933.474512490924</v>
       </c>
       <c r="W41" t="n">
-        <v>1168.192122508759</v>
+        <v>1933.474512490924</v>
       </c>
       <c r="X41" t="n">
-        <v>756.4721236765063</v>
+        <v>1933.474512490924</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.9911724139236</v>
+        <v>1933.474512490924</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>43.83330772426898</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J42" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K42" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L42" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M42" t="n">
-        <v>758.2365412873039</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N42" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O42" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P42" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R42" t="n">
         <v>1815.956238873899</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.5485092227807</v>
+        <v>302.3789873482487</v>
       </c>
       <c r="C43" t="n">
-        <v>399.5759461016967</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="D43" t="n">
-        <v>236.2591732284674</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="E43" t="n">
-        <v>236.2591732284674</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F43" t="n">
-        <v>179.45207818337</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G43" t="n">
-        <v>179.45207818337</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H43" t="n">
         <v>43.83330772426898</v>
@@ -7569,52 +7569,52 @@
         <v>43.83330772426898</v>
       </c>
       <c r="J43" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K43" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L43" t="n">
-        <v>985.0293102399839</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M43" t="n">
-        <v>1517.522474399294</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N43" t="n">
-        <v>1634.928458220693</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O43" t="n">
-        <v>1902.310538521926</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P43" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q43" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R43" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S43" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.33261019127</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.621142799299</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W43" t="n">
-        <v>1230.621142799299</v>
+        <v>961.4516209247672</v>
       </c>
       <c r="X43" t="n">
-        <v>988.0572462451042</v>
+        <v>718.8877243705723</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7144779348463</v>
+        <v>492.5449560603143</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>468.9574895348688</v>
+        <v>620.7273527626829</v>
       </c>
       <c r="C44" t="n">
-        <v>468.9574895348688</v>
+        <v>620.7273527626829</v>
       </c>
       <c r="D44" t="n">
-        <v>468.9574895348688</v>
+        <v>620.7273527626829</v>
       </c>
       <c r="E44" t="n">
-        <v>468.9574895348688</v>
+        <v>620.7273527626829</v>
       </c>
       <c r="F44" t="n">
-        <v>43.83330772426898</v>
+        <v>620.7273527626829</v>
       </c>
       <c r="G44" t="n">
-        <v>43.83330772426898</v>
+        <v>218.4387363654185</v>
       </c>
       <c r="H44" t="n">
         <v>43.83330772426898</v>
@@ -7651,16 +7651,16 @@
         <v>228.5477172037495</v>
       </c>
       <c r="K44" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L44" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M44" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N44" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O44" t="n">
         <v>1667.064768900565</v>
@@ -7675,25 +7675,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S44" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T44" t="n">
-        <v>1922.072887082163</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U44" t="n">
-        <v>1663.882013359638</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V44" t="n">
-        <v>1663.882013359638</v>
+        <v>1834.175971339698</v>
       </c>
       <c r="W44" t="n">
-        <v>1267.490663659985</v>
+        <v>1437.784621640045</v>
       </c>
       <c r="X44" t="n">
-        <v>1267.490663659985</v>
+        <v>1026.064622807793</v>
       </c>
       <c r="Y44" t="n">
-        <v>888.8058538263988</v>
+        <v>620.7273527626829</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>974.9733260640804</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C45" t="n">
-        <v>857.4674225815852</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D45" t="n">
-        <v>753.6274640968702</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E45" t="n">
-        <v>648.9255303698075</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F45" t="n">
-        <v>555.2797000527116</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G45" t="n">
-        <v>462.3230136065757</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>419.5424550638183</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I45" t="n">
-        <v>440.5525759700809</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J45" t="n">
-        <v>640.7512954974895</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K45" t="n">
-        <v>792.2058879834922</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L45" t="n">
-        <v>1003.382691176238</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M45" t="n">
-        <v>1252.96155101385</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N45" t="n">
-        <v>1511.487425425097</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O45" t="n">
-        <v>1744.377376662391</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P45" t="n">
-        <v>1928.150471206571</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q45" t="n">
-        <v>2042.886048700246</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R45" t="n">
-        <v>2191.665386213449</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S45" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T45" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U45" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V45" t="n">
-        <v>1603.591947530971</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W45" t="n">
-        <v>1407.070570364188</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X45" t="n">
-        <v>1243.593224130851</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y45" t="n">
-        <v>1103.900335484143</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1018.148604463602</v>
+        <v>846.1760413425178</v>
       </c>
       <c r="C46" t="n">
         <v>846.1760413425178</v>
@@ -7809,49 +7809,49 @@
         <v>87.13587819270245</v>
       </c>
       <c r="K46" t="n">
-        <v>344.4879186952914</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L46" t="n">
-        <v>456.8103098456199</v>
+        <v>522.9070889549464</v>
       </c>
       <c r="M46" t="n">
-        <v>989.30347400493</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N46" t="n">
-        <v>1106.709457826329</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O46" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P46" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q46" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S46" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="T46" t="n">
-        <v>1952.255919907028</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="U46" t="n">
-        <v>1672.12164010692</v>
+        <v>1905.848224460386</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.12164010692</v>
+        <v>1624.136757068414</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.269236279433</v>
+        <v>1349.284353240927</v>
       </c>
       <c r="X46" t="n">
-        <v>1244.49137277386</v>
+        <v>1262.684778364841</v>
       </c>
       <c r="Y46" t="n">
-        <v>1018.148604463602</v>
+        <v>1036.342010054583</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>120.2180428151481</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>264.9783407168321</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>243.2165947276852</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K15" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>365.5498012208084</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>243.2165947276852</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>190.784622808066</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>243.2165947276852</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>142.0156557893246</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>176.4521713849317</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>241.8898970387572</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>322.5217088577441</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.0445018459504</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>228.7832334848949</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>241.8898970387577</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,10 +10047,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>192.1113204969942</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>241.8898970387577</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>190.7846228080666</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>241.8898970387577</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.0445018459504</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>264.9783407168326</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>93.90673216551743</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>226.7387501736388</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>241.8898970387577</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.8654760472100165</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11229,16 +11229,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>163.8783115981281</v>
+        <v>243.2165947276857</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>120.2180428151482</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>175.125473696004</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>241.8898970387581</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.6974527319979</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>30.64397872721644</v>
       </c>
       <c r="T11" t="n">
         <v>209.8302460968812</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.4593725117184</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>90.06182427874438</v>
       </c>
       <c r="G13" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.505873144533</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.2657302332918</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>221.6613492709071</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.789306566178311</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>11.22082458902952</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>201.8485522884299</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T17" t="n">
         <v>209.8302460968812</v>
@@ -23794,10 +23794,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>360.3864851544969</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>66.34363904247398</v>
+        <v>102.0428615843521</v>
       </c>
       <c r="G19" t="n">
         <v>163.6838381111991</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T20" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6089649852995</v>
+        <v>63.27129837673445</v>
       </c>
       <c r="V20" t="n">
-        <v>324.2228267905101</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.6025059067579</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>164.9711132140015</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H22" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I22" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.4622313436218</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T23" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>381.1804495280549</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>81.60227294005577</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>134.26258275451</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>101.1805759068765</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8302460968812</v>
+        <v>169.0419134770493</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>188.4399856555394</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.1343119173138</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>75.89555923885703</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24691,7 +24691,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T29" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>82.74959063056195</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>221.1403212450905</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>90.06182427874444</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>63.48112039829547</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H32" t="n">
         <v>274.1005558094662</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>10.09762734947781</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>148.7285565721281</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>81.60227294005533</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.6838381111991</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>90.06182427874444</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25171,7 +25171,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H35" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T35" t="n">
-        <v>141.6256366847343</v>
+        <v>176.4617441083022</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>32.88613342080353</v>
+        <v>77.97645277333274</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>226.8842421200328</v>
+        <v>18.01548487465965</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6089649852995</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>113.086328784006</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3329370021073</v>
+        <v>155.3476247065765</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>81.57000102526885</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>368.1377555947017</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>84.43577114531841</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9041323885388</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I43" t="n">
         <v>71.38780296833761</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25876,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.1005558094662</v>
+        <v>101.2411814547282</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>26.38593560940859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>88.88817271813599</v>
+        <v>154.4046784613277</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>342899.0980509914</v>
+        <v>342899.0980509912</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>342899.0980509912</v>
+        <v>342899.0980509911</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>342899.0980509912</v>
+        <v>342899.0980509911</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>342899.0980509913</v>
+        <v>342899.0980509912</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342899.0980509914</v>
+        <v>342899.0980509912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473349.6994154218</v>
+        <v>473349.6994154219</v>
       </c>
       <c r="C2" t="n">
-        <v>473349.6994154218</v>
+        <v>473349.6994154219</v>
       </c>
       <c r="D2" t="n">
-        <v>473349.6994154218</v>
+        <v>473349.6994154219</v>
       </c>
       <c r="E2" t="n">
-        <v>286095.8679943439</v>
+        <v>286095.8679943437</v>
       </c>
       <c r="F2" t="n">
+        <v>286095.8679943438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>286095.8679943438</v>
+      </c>
+      <c r="H2" t="n">
         <v>286095.8679943437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>286095.8679943439</v>
-      </c>
-      <c r="H2" t="n">
-        <v>286095.8679943439</v>
       </c>
       <c r="I2" t="n">
         <v>286095.8679943437</v>
       </c>
       <c r="J2" t="n">
-        <v>286095.8679943437</v>
+        <v>286095.8679943438</v>
       </c>
       <c r="K2" t="n">
         <v>286095.8679943438</v>
       </c>
       <c r="L2" t="n">
+        <v>286095.8679943437</v>
+      </c>
+      <c r="M2" t="n">
         <v>286095.8679943439</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>286095.8679943438</v>
-      </c>
-      <c r="N2" t="n">
-        <v>286095.8679943437</v>
       </c>
       <c r="O2" t="n">
         <v>286095.8679943438</v>
       </c>
       <c r="P2" t="n">
-        <v>286095.8679943436</v>
+        <v>286095.8679943438</v>
       </c>
     </row>
     <row r="3">
@@ -26426,34 +26426,34 @@
         <v>324702.6297467059</v>
       </c>
       <c r="E4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
       <c r="F4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
       <c r="G4" t="n">
         <v>22575.93305068482</v>
       </c>
       <c r="H4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
       <c r="I4" t="n">
-        <v>22575.93305068483</v>
+        <v>22575.93305068482</v>
       </c>
       <c r="J4" t="n">
         <v>22575.93305068483</v>
       </c>
       <c r="K4" t="n">
-        <v>22575.93305068487</v>
+        <v>22575.93305068483</v>
       </c>
       <c r="L4" t="n">
-        <v>22575.93305068487</v>
+        <v>22575.93305068483</v>
       </c>
       <c r="M4" t="n">
+        <v>22575.93305068482</v>
+      </c>
+      <c r="N4" t="n">
         <v>22575.93305068483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22575.93305068482</v>
       </c>
       <c r="O4" t="n">
         <v>22575.93305068482</v>
@@ -26478,31 +26478,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="F5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="G5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="H5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="I5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781074</v>
       </c>
       <c r="J5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="K5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="L5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="M5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="N5" t="n">
         <v>44321.17942781075</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115019.469668716</v>
+        <v>114997.7560272197</v>
       </c>
       <c r="C6" t="n">
-        <v>115019.4696687159</v>
+        <v>114997.7560272197</v>
       </c>
       <c r="D6" t="n">
-        <v>115019.469668716</v>
+        <v>114997.7560272197</v>
       </c>
       <c r="E6" t="n">
-        <v>-350073.7183954893</v>
+        <v>-350662.8678897769</v>
       </c>
       <c r="F6" t="n">
-        <v>219198.7555158481</v>
+        <v>218609.6060215608</v>
       </c>
       <c r="G6" t="n">
-        <v>219198.7555158483</v>
+        <v>218609.6060215608</v>
       </c>
       <c r="H6" t="n">
-        <v>219198.7555158483</v>
+        <v>218609.6060215607</v>
       </c>
       <c r="I6" t="n">
-        <v>219198.7555158481</v>
+        <v>218609.6060215607</v>
       </c>
       <c r="J6" t="n">
-        <v>219198.7555158481</v>
+        <v>218609.6060215608</v>
       </c>
       <c r="K6" t="n">
-        <v>219198.7555158482</v>
+        <v>218609.6060215608</v>
       </c>
       <c r="L6" t="n">
-        <v>219198.7555158483</v>
+        <v>218609.6060215607</v>
       </c>
       <c r="M6" t="n">
-        <v>82655.8102893641</v>
+        <v>82066.66079507675</v>
       </c>
       <c r="N6" t="n">
-        <v>219198.7555158481</v>
+        <v>218609.6060215608</v>
       </c>
       <c r="O6" t="n">
-        <v>219198.7555158482</v>
+        <v>218609.6060215608</v>
       </c>
       <c r="P6" t="n">
-        <v>219198.7555158481</v>
+        <v>218609.6060215608</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="F3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="G3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="H3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="I3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="J3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="K3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="L3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="M3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="N3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="O3" t="n">
         <v>504.9479613470796</v>
@@ -26798,31 +26798,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="G4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="H4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="I4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.916346553362</v>
       </c>
       <c r="J4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="K4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="L4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>547.9163465533621</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31761,22 +31761,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J11" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K11" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L11" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M11" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N11" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O11" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P11" t="n">
         <v>291.9081327704994</v>
@@ -31788,10 +31788,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T11" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U11" t="n">
         <v>0.1623953242523269</v>
@@ -31840,7 +31840,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J12" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K12" t="n">
         <v>175.3836706878814</v>
@@ -31855,7 +31855,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O12" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P12" t="n">
         <v>207.4002296332939</v>
@@ -31873,7 +31873,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H13" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I13" t="n">
         <v>27.38307960878917</v>
@@ -31925,7 +31925,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L13" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M13" t="n">
         <v>142.7347163525851</v>
@@ -31952,7 +31952,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,22 +31998,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J14" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K14" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L14" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M14" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N14" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O14" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P14" t="n">
         <v>291.9081327704994</v>
@@ -32025,10 +32025,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T14" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U14" t="n">
         <v>0.1623953242523269</v>
@@ -32077,7 +32077,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J15" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K15" t="n">
         <v>175.3836706878814</v>
@@ -32092,7 +32092,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O15" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P15" t="n">
         <v>207.4002296332939</v>
@@ -32110,7 +32110,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H16" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I16" t="n">
         <v>27.38307960878917</v>
@@ -32162,7 +32162,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L16" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M16" t="n">
         <v>142.7347163525851</v>
@@ -32189,7 +32189,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I17" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J17" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K17" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L17" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M17" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N17" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O17" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P17" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q17" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R17" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S17" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T17" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U17" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H18" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I18" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J18" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K18" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L18" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M18" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N18" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P18" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R18" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S18" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T18" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H19" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I19" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J19" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K19" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L19" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M19" t="n">
         <v>142.7347163525851</v>
@@ -32414,19 +32414,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R19" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S19" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T19" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,22 +32472,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J20" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K20" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L20" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M20" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N20" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O20" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P20" t="n">
         <v>291.9081327704994</v>
@@ -32499,10 +32499,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S20" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T20" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U20" t="n">
         <v>0.1623953242523269</v>
@@ -32551,7 +32551,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J21" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K21" t="n">
         <v>175.3836706878814</v>
@@ -32566,7 +32566,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O21" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P21" t="n">
         <v>207.4002296332939</v>
@@ -32584,7 +32584,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,7 +32624,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H22" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I22" t="n">
         <v>27.38307960878917</v>
@@ -32636,7 +32636,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L22" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M22" t="n">
         <v>142.7347163525851</v>
@@ -32663,7 +32663,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,22 +32709,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J23" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K23" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L23" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M23" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N23" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O23" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P23" t="n">
         <v>291.9081327704994</v>
@@ -32736,10 +32736,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S23" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T23" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U23" t="n">
         <v>0.1623953242523269</v>
@@ -32788,7 +32788,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J24" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K24" t="n">
         <v>175.3836706878814</v>
@@ -32803,7 +32803,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O24" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P24" t="n">
         <v>207.4002296332939</v>
@@ -32821,7 +32821,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,7 +32861,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H25" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I25" t="n">
         <v>27.38307960878917</v>
@@ -32873,7 +32873,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L25" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M25" t="n">
         <v>142.7347163525851</v>
@@ -32900,7 +32900,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,22 +32946,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J26" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K26" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L26" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M26" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N26" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O26" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P26" t="n">
         <v>291.9081327704994</v>
@@ -32973,10 +32973,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S26" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T26" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U26" t="n">
         <v>0.1623953242523269</v>
@@ -33025,7 +33025,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J27" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K27" t="n">
         <v>175.3836706878814</v>
@@ -33040,7 +33040,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O27" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P27" t="n">
         <v>207.4002296332939</v>
@@ -33058,7 +33058,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H28" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I28" t="n">
         <v>27.38307960878917</v>
@@ -33110,7 +33110,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L28" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M28" t="n">
         <v>142.7347163525851</v>
@@ -33137,7 +33137,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,22 +33183,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J29" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K29" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L29" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M29" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N29" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O29" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P29" t="n">
         <v>291.9081327704994</v>
@@ -33210,10 +33210,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S29" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T29" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U29" t="n">
         <v>0.1623953242523269</v>
@@ -33262,7 +33262,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J30" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K30" t="n">
         <v>175.3836706878814</v>
@@ -33277,7 +33277,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O30" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P30" t="n">
         <v>207.4002296332939</v>
@@ -33295,7 +33295,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,7 +33335,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H31" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I31" t="n">
         <v>27.38307960878917</v>
@@ -33347,7 +33347,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L31" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M31" t="n">
         <v>142.7347163525851</v>
@@ -33374,7 +33374,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,22 +33420,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J32" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K32" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L32" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M32" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N32" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O32" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P32" t="n">
         <v>291.9081327704994</v>
@@ -33447,10 +33447,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S32" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T32" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U32" t="n">
         <v>0.1623953242523269</v>
@@ -33499,7 +33499,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J33" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K33" t="n">
         <v>175.3836706878814</v>
@@ -33514,7 +33514,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O33" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P33" t="n">
         <v>207.4002296332939</v>
@@ -33532,7 +33532,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,7 +33572,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H34" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I34" t="n">
         <v>27.38307960878917</v>
@@ -33584,7 +33584,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L34" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M34" t="n">
         <v>142.7347163525851</v>
@@ -33611,7 +33611,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,22 +33657,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K35" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L35" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M35" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N35" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O35" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P35" t="n">
         <v>291.9081327704994</v>
@@ -33684,10 +33684,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S35" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T35" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U35" t="n">
         <v>0.1623953242523269</v>
@@ -33736,7 +33736,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J36" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K36" t="n">
         <v>175.3836706878814</v>
@@ -33751,7 +33751,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O36" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P36" t="n">
         <v>207.4002296332939</v>
@@ -33769,7 +33769,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,7 +33809,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H37" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I37" t="n">
         <v>27.38307960878917</v>
@@ -33821,7 +33821,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L37" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M37" t="n">
         <v>142.7347163525851</v>
@@ -33848,7 +33848,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,22 +33894,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K38" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L38" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M38" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N38" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O38" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P38" t="n">
         <v>291.9081327704994</v>
@@ -33921,10 +33921,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S38" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T38" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U38" t="n">
         <v>0.1623953242523269</v>
@@ -33973,7 +33973,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J39" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K39" t="n">
         <v>175.3836706878814</v>
@@ -33988,7 +33988,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O39" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P39" t="n">
         <v>207.4002296332939</v>
@@ -34006,7 +34006,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H40" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I40" t="n">
         <v>27.38307960878917</v>
@@ -34058,7 +34058,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L40" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M40" t="n">
         <v>142.7347163525851</v>
@@ -34085,7 +34085,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>172.2887518970119</v>
       </c>
       <c r="K44" t="n">
-        <v>258.2161778420248</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L44" t="n">
         <v>320.3400016493639</v>
@@ -34392,7 +34392,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R44" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883159</v>
       </c>
       <c r="S44" t="n">
         <v>46.25729314249881</v>
@@ -35415,7 +35415,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L11" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M11" t="n">
         <v>319.008711845836</v>
@@ -35424,7 +35424,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O11" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P11" t="n">
         <v>254.3327709602681</v>
@@ -35433,7 +35433,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R11" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K12" t="n">
         <v>152.9844368545481</v>
@@ -35497,7 +35497,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M12" t="n">
-        <v>372.3179012369785</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N12" t="n">
         <v>261.1372468800477</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K13" t="n">
-        <v>84.8260823672171</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M13" t="n">
-        <v>385.1376171779314</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N13" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O13" t="n">
-        <v>487.7220970932224</v>
+        <v>349.4211925247427</v>
       </c>
       <c r="P13" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q13" t="n">
         <v>51.62757939862406</v>
@@ -35652,7 +35652,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L14" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M14" t="n">
         <v>319.008711845836</v>
@@ -35661,7 +35661,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O14" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P14" t="n">
         <v>254.3327709602681</v>
@@ -35670,7 +35670,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R14" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J15" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K15" t="n">
-        <v>379.7231870281869</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L15" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M15" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N15" t="n">
         <v>261.1372468800477</v>
@@ -35749,7 +35749,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R15" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K16" t="n">
-        <v>84.8260823672171</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L16" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M16" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N16" t="n">
-        <v>484.1417040707063</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O16" t="n">
-        <v>487.7220970932224</v>
+        <v>349.4211925247427</v>
       </c>
       <c r="P16" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q16" t="n">
         <v>51.62757939862406</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J17" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K17" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L17" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M17" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N17" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O17" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P17" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J18" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K18" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L18" t="n">
-        <v>440.0486523885334</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N18" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P18" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.73997017013482</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K19" t="n">
-        <v>275.6107051752832</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L19" t="n">
-        <v>113.4569607579077</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M19" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N19" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O19" t="n">
-        <v>487.7220970932224</v>
+        <v>349.4211925247427</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L20" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M20" t="n">
         <v>319.008711845836</v>
@@ -36135,7 +36135,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O20" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P20" t="n">
         <v>254.3327709602681</v>
@@ -36144,7 +36144,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R20" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J21" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K21" t="n">
         <v>152.9844368545481</v>
@@ -36208,7 +36208,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M21" t="n">
-        <v>478.8386085954692</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N21" t="n">
         <v>261.1372468800477</v>
@@ -36223,7 +36223,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R21" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K22" t="n">
-        <v>84.8260823672171</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L22" t="n">
-        <v>493.647762365145</v>
+        <v>255.4726165472322</v>
       </c>
       <c r="M22" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N22" t="n">
-        <v>295.0440742348296</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O22" t="n">
         <v>106.2045977970574</v>
       </c>
       <c r="P22" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q22" t="n">
         <v>204.5301020025625</v>
@@ -36363,16 +36363,16 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L23" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M23" t="n">
         <v>319.008711845836</v>
       </c>
       <c r="N23" t="n">
-        <v>324.9279233487214</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O23" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P23" t="n">
         <v>254.3327709602681</v>
@@ -36381,7 +36381,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R23" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J24" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K24" t="n">
         <v>152.9844368545481</v>
@@ -36445,7 +36445,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M24" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N24" t="n">
         <v>261.1372468800477</v>
@@ -36457,10 +36457,10 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q24" t="n">
-        <v>342.6332728945229</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R24" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K25" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L25" t="n">
-        <v>113.4569607579076</v>
+        <v>355.3468577966648</v>
       </c>
       <c r="M25" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N25" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O25" t="n">
-        <v>428.7263066548015</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P25" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L26" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M26" t="n">
         <v>319.008711845836</v>
@@ -36609,7 +36609,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O26" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P26" t="n">
         <v>254.3327709602681</v>
@@ -36618,7 +36618,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R26" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J27" t="n">
-        <v>82.00288600041613</v>
+        <v>285.0473878463665</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
@@ -36682,7 +36682,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M27" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N27" t="n">
         <v>261.1372468800477</v>
@@ -36691,7 +36691,7 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P27" t="n">
-        <v>412.3681386021042</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q27" t="n">
         <v>115.8945227208838</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K28" t="n">
-        <v>313.609315852112</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4569607579076</v>
+        <v>355.3468577966653</v>
       </c>
       <c r="M28" t="n">
         <v>537.871882989202</v>
@@ -36767,10 +36767,10 @@
         <v>520.6453602659385</v>
       </c>
       <c r="O28" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P28" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q28" t="n">
         <v>51.62757939862406</v>
@@ -36837,16 +36837,16 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L29" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M29" t="n">
         <v>319.008711845836</v>
       </c>
       <c r="N29" t="n">
-        <v>324.9279233487219</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O29" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P29" t="n">
         <v>254.3327709602681</v>
@@ -36855,7 +36855,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R29" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J30" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K30" t="n">
         <v>152.9844368545481</v>
@@ -36919,7 +36919,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M30" t="n">
-        <v>478.8386085954692</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N30" t="n">
         <v>261.1372468800477</v>
@@ -36934,7 +36934,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R30" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K31" t="n">
-        <v>276.9374028642113</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L31" t="n">
-        <v>493.647762365145</v>
+        <v>355.3468577966653</v>
       </c>
       <c r="M31" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N31" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O31" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P31" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L32" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M32" t="n">
         <v>319.008711845836</v>
       </c>
       <c r="N32" t="n">
-        <v>324.9279233487219</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O32" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P32" t="n">
         <v>254.3327709602681</v>
@@ -37092,7 +37092,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R32" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J33" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
@@ -37156,10 +37156,10 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M33" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8759970536865</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O33" t="n">
         <v>235.2423749871648</v>
@@ -37171,7 +37171,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R33" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K34" t="n">
-        <v>275.6107051752837</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L34" t="n">
-        <v>113.4569607579076</v>
+        <v>355.3468577966653</v>
       </c>
       <c r="M34" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N34" t="n">
         <v>520.6453602659385</v>
@@ -37244,10 +37244,10 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P34" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L35" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M35" t="n">
         <v>319.008711845836</v>
@@ -37320,7 +37320,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O35" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P35" t="n">
         <v>254.3327709602681</v>
@@ -37329,7 +37329,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R35" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J36" t="n">
-        <v>82.00288600041613</v>
+        <v>285.0473878463665</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
@@ -37393,7 +37393,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M36" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N36" t="n">
         <v>261.1372468800477</v>
@@ -37405,7 +37405,7 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q36" t="n">
-        <v>342.6332728945229</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R36" t="n">
         <v>43.76145174575454</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K37" t="n">
-        <v>84.8260823672171</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L37" t="n">
-        <v>378.4353014747402</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M37" t="n">
         <v>120.1592764610993</v>
@@ -37484,7 +37484,7 @@
         <v>403.6628800831245</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.62757939862406</v>
+        <v>145.5343115641415</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L38" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M38" t="n">
         <v>319.008711845836</v>
@@ -37557,7 +37557,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O38" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P38" t="n">
         <v>254.3327709602681</v>
@@ -37566,7 +37566,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J39" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
@@ -37630,13 +37630,13 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M39" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N39" t="n">
         <v>261.1372468800477</v>
       </c>
       <c r="O39" t="n">
-        <v>461.9811251608036</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P39" t="n">
         <v>185.6293884284652</v>
@@ -37645,7 +37645,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K40" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L40" t="n">
-        <v>493.647762365145</v>
+        <v>355.3468577966653</v>
       </c>
       <c r="M40" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N40" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O40" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P40" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.49305544583408</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J42" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K42" t="n">
         <v>152.9844368545481</v>
@@ -37879,10 +37879,10 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q42" t="n">
-        <v>342.6332728945229</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R42" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K43" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L43" t="n">
         <v>493.647762365145</v>
@@ -37949,16 +37949,16 @@
         <v>537.871882989202</v>
       </c>
       <c r="N43" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O43" t="n">
-        <v>270.0829093951855</v>
+        <v>349.4211925247431</v>
       </c>
       <c r="P43" t="n">
         <v>87.74752192826833</v>
       </c>
       <c r="Q43" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>142.8687924114253</v>
       </c>
       <c r="K44" t="n">
-        <v>222.4515770472155</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L44" t="n">
         <v>282.027959216741</v>
@@ -38040,7 +38040,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R44" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351944</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J45" t="n">
-        <v>202.2209288155643</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K45" t="n">
         <v>152.9844368545481</v>
@@ -38177,25 +38177,25 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K46" t="n">
-        <v>259.9515560632211</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L46" t="n">
-        <v>113.4569607579076</v>
+        <v>355.3468577966657</v>
       </c>
       <c r="M46" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N46" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O46" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P46" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q46" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
